--- a/data/long_bre/P16-Edad-long_bre.xlsx
+++ b/data/long_bre/P16-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,07</t>
+          <t>-19,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-52,94%</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>36,77%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-57,63%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 23,75</t>
+          <t>-2,38; 21,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -4,78</t>
+          <t>-31,88; -7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 23,55</t>
+          <t>-1,32; 21,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 120,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -17,5</t>
+          <t>-16,0; 16,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 189,18</t>
+          <t>-7,98; 110,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-75,2; -22,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 151,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-50,42; 142,54</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,28%</t>
+          <t>-10,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-12,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 6,92</t>
+          <t>-17,25; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 15,36</t>
+          <t>-12,0; 16,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 4,08</t>
+          <t>-20,52; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 17,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 33,78</t>
+          <t>-21,74; 18,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 7,63</t>
+          <t>-32,97; 19,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 39,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; 13,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,81; 53,52</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-15,68%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>107,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-17,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 4,75</t>
+          <t>-15,24; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 27,72</t>
+          <t>5,03; 28,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,79</t>
+          <t>-17,4; 5,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 22,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 275,86</t>
+          <t>-18,9; 21,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 52,73</t>
+          <t>-45,27; 31,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 265,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-57,94; 36,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-44,88; 106,14</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 113,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 36,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-37,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-39,77%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 8,59</t>
+          <t>-13,35; 14,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 24,45</t>
+          <t>-29,65; 0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 11,13</t>
+          <t>-12,25; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 70,07</t>
+          <t>-45,65; 5,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 23,76</t>
+          <t>-48,96; 126,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-70,41; 3,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,86; 46,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-74,84; 32,75</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>29,15</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>-9,15%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119,17%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,64</t>
+          <t>-18,67; 10,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 13,94</t>
+          <t>-3,32; 24,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 13,03</t>
+          <t>-14,32; 10,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 82,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 83,41</t>
+          <t>9,2; 46,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 76,71</t>
+          <t>-28,82; 19,24</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 74,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; 22,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 346,99</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-37,59%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 11,14</t>
+          <t>-9,48; 12,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 7,08</t>
+          <t>-14,45; 13,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 10,88</t>
+          <t>-7,32; 12,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 77,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 52,42</t>
+          <t>-38,13; 5,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 109,66</t>
+          <t>-32,27; 76,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-40,31; 67,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-27,19; 79,87</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-65,28; 23,0</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 15,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 34,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 1,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 4,09</t>
+          <t>-3,11; 13,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,56</t>
+          <t>-10,44; 5,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 12,59</t>
+          <t>-2,09; 11,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 86,42</t>
+          <t>-3,91; 16,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 65,98</t>
+          <t>-13,88; 100,04</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-43,5; 41,82</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 118,76</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-24,06; 191,41</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,63%</t>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-11,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 10,2</t>
+          <t>-12,18; 10,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -1,74</t>
+          <t>-17,8; 4,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -1,0</t>
+          <t>-18,88; 0,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 65,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,41; -7,26</t>
+          <t>-14,43; 14,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,07; -5,02</t>
+          <t>-19,17; 19,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 8,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 0,35</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-22,67; 30,84</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>-18,29%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>32,09%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-21,55%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 11,67</t>
+          <t>-14,34; 4,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 19,53</t>
+          <t>-1,69; 17,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 12,75</t>
+          <t>-3,99; 13,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 22,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 40,27</t>
+          <t>-18,99; 7,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 26,36</t>
+          <t>-45,48; 24,96</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 89,77</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 69,3</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-49,29; 30,66</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-24,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 11,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 42,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 59,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-32,05%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-35,18%</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-39,46%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-37,18%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 1,36</t>
+          <t>-4,33; 10,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 0,97</t>
+          <t>-14,83; -0,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,7</t>
+          <t>-17,09; -1,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 5,7</t>
+          <t>-14,46; 12,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 77,68</t>
+          <t>-18,96; 70,15</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-60,2; -4,76</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-60,72; -6,49</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-50,89; 92,13</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 21,45</t>
+          <t>-5,96; 11,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 13,49</t>
+          <t>-2,03; 17,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 11,13</t>
+          <t>-4,93; 12,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 49,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 27,0</t>
+          <t>-16,07; 11,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 19,98</t>
+          <t>-9,62; 22,79</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 35,54</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 26,07</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-24,87; 22,98</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>-24,65%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 8,1</t>
+          <t>-13,81; 1,23</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 15,65</t>
+          <t>-8,46; 8,91</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 4,77</t>
+          <t>-3,35; 11,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 37,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 88,28</t>
+          <t>-8,91; 12,99</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 25,76</t>
+          <t>-50,41; 7,12</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 51,78</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 55,66</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-33,6; 88,68</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-53,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 19,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 89,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 132,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-72,04; -21,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>-25,67%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-31,15%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 6,65</t>
+          <t>-14,62; 3,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 8,39</t>
+          <t>-15,73; 1,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 17,07</t>
+          <t>-6,35; 7,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 17,56</t>
+          <t>-9,03; 13,77</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 36,72</t>
+          <t>-55,42; 22,38</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-59,38; 9,87</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-35,18; 61,61</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 98,89</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 15,81</t>
+          <t>-2,06; 20,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 12,65</t>
+          <t>-10,1; 11,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 22,29</t>
+          <t>-7,5; 10,97</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 94,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 76,37</t>
+          <t>-15,54; 13,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 127,36</t>
+          <t>-3,53; 46,27</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 23,27</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 19,69</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-26,22; 31,22</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>-12,2%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-14,61%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>-14,71; 6,77</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,35</t>
+          <t>-3,85; 15,34</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,71</t>
+          <t>-11,43; 4,3</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -6,02</t>
+          <t>-13,2; 11,87</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 10,75</t>
+          <t>-41,81; 30,88</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 90,88</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-42,89; 22,05</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-38,12; 52,58</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 6,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-49,97%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>-19,13%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>-6,83; 10,6</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,22</t>
+          <t>-8,7; 16,84</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,63</t>
+          <t>-22,06; -2,71</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>1,4; 45,85</t>
+          <t>-17,01; 10,2</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 36,9</t>
+          <t>-31,15; 81,82</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-32,31; 113,57</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-69,83; -10,69</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-62,27; 79,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-7,74</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-6,49</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-6,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-21,0; 4,03</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 7,19</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 16,1</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 14,99</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-32,09; 8,55</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-31,3; 15,19</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 34,74</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-35,27; 34,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 17,85</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 12,85</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 18,24</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 24,4</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; 96,7</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 76,27</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-14,4; 113,32</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-34,09; 151,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-27,33%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 7,02</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; -2,14</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 1,93</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 4,22</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 40,11</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-42,35; -9,06</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 11,62</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; 23,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 4,26</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 7,1</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 3,39</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 10,57</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 8,28</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 14,41</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 6,18</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 23,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,74</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 9,76</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,55</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 3,93</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 12,36</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 49,26</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 31,28</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-28,04; 15,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P16-Edad-long_bre.xlsx
+++ b/data/long_bre/P16-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -653,7 +653,7 @@
         <v>11.9610926428234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0</v>
+        <v>-5.394941697677655</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4027732787342808</v>
@@ -667,7 +667,9 @@
       <c r="J4" s="6" t="n">
         <v>0.659381377083087</v>
       </c>
-      <c r="K4" s="6" t="inlineStr"/>
+      <c r="K4" s="6" t="n">
+        <v>-0.1786338171002907</v>
+      </c>
       <c r="L4" s="6" t="n">
         <v>0.01769029753623549</v>
       </c>
@@ -688,7 +690,9 @@
       <c r="E5" s="5" t="n">
         <v>-0.4246744333997519</v>
       </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>-21.73383685971746</v>
+      </c>
       <c r="G5" s="5" t="n">
         <v>-16.3797567967805</v>
       </c>
@@ -701,7 +705,9 @@
       <c r="J5" s="6" t="n">
         <v>-0.03855742390804332</v>
       </c>
-      <c r="K5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.5396704945385354</v>
+      </c>
       <c r="L5" s="6" t="n">
         <v>-0.5084552288937816</v>
       </c>
@@ -722,7 +728,9 @@
       <c r="E6" s="5" t="n">
         <v>21.8663085667789</v>
       </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>10.92417447078657</v>
+      </c>
       <c r="G6" s="5" t="n">
         <v>17.00440022446691</v>
       </c>
@@ -735,7 +743,9 @@
       <c r="J6" s="6" t="n">
         <v>1.637603227449103</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>0.5947403146551371</v>
+      </c>
       <c r="L6" s="6" t="n">
         <v>1.345765014740688</v>
       </c>
@@ -744,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -757,7 +767,7 @@
         <v>-9.659790743703667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>-12.95382789851711</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>-3.088980092921811</v>
@@ -771,7 +781,9 @@
       <c r="J7" s="6" t="n">
         <v>-0.1566111804361881</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
+      <c r="K7" s="6" t="n">
+        <v>-0.2716583637425282</v>
+      </c>
       <c r="L7" s="6" t="n">
         <v>-0.06772187008759943</v>
       </c>
@@ -792,7 +804,9 @@
       <c r="E8" s="5" t="n">
         <v>-21.90467646125646</v>
       </c>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-28.10649882507166</v>
+      </c>
       <c r="G8" s="5" t="n">
         <v>-22.68702492060203</v>
       </c>
@@ -805,7 +819,9 @@
       <c r="J8" s="6" t="n">
         <v>-0.321774308567332</v>
       </c>
-      <c r="K8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="n">
+        <v>-0.5154778630302582</v>
+      </c>
       <c r="L8" s="6" t="n">
         <v>-0.4052688950619472</v>
       </c>
@@ -826,7 +842,9 @@
       <c r="E9" s="5" t="n">
         <v>4.688367074887749</v>
       </c>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>5.252009661146212</v>
+      </c>
       <c r="G9" s="5" t="n">
         <v>17.68064842773759</v>
       </c>
@@ -839,7 +857,9 @@
       <c r="J9" s="6" t="n">
         <v>0.07887592287048999</v>
       </c>
-      <c r="K9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>0.1152235834022172</v>
+      </c>
       <c r="L9" s="6" t="n">
         <v>0.5282321307401018</v>
       </c>
@@ -848,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -861,7 +881,7 @@
         <v>-2.301301899119726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>18.34876959619477</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.686206814187536</v>
@@ -875,7 +895,9 @@
       <c r="J10" s="6" t="n">
         <v>-0.1140384870960507</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="n">
+        <v>0.8297122343532233</v>
+      </c>
       <c r="L10" s="6" t="n">
         <v>0.08495485572320963</v>
       </c>
@@ -896,7 +918,9 @@
       <c r="E11" s="5" t="n">
         <v>-14.80267277408605</v>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0.833095692509407</v>
+      </c>
       <c r="G11" s="5" t="n">
         <v>-17.96386426845202</v>
       </c>
@@ -909,7 +933,9 @@
       <c r="J11" s="6" t="n">
         <v>-0.5279541285864764</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.01717990398362612</v>
+      </c>
       <c r="L11" s="6" t="n">
         <v>-0.4356092337576968</v>
       </c>
@@ -930,7 +956,9 @@
       <c r="E12" s="5" t="n">
         <v>7.011415218013297</v>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>32.57523739313334</v>
+      </c>
       <c r="G12" s="5" t="n">
         <v>21.82109088149191</v>
       </c>
@@ -943,7 +971,9 @@
       <c r="J12" s="6" t="n">
         <v>0.4975505663572088</v>
       </c>
-      <c r="K12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>2.266836199302367</v>
+      </c>
       <c r="L12" s="6" t="n">
         <v>1.08849691160206</v>
       </c>
@@ -956,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -969,7 +999,7 @@
         <v>-3.824872304356755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0</v>
+        <v>1.837607303802238</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>-14.82772826143411</v>
@@ -983,7 +1013,9 @@
       <c r="J13" s="6" t="n">
         <v>-0.1805166754988203</v>
       </c>
-      <c r="K13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="n">
+        <v>0.0869993739432874</v>
+      </c>
       <c r="L13" s="6" t="n">
         <v>-0.4169489061259107</v>
       </c>
@@ -1004,7 +1036,9 @@
       <c r="E14" s="5" t="n">
         <v>-13.4189055811313</v>
       </c>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>-9.830556336185218</v>
+      </c>
       <c r="G14" s="5" t="n">
         <v>-44.23569765906916</v>
       </c>
@@ -1017,7 +1051,9 @@
       <c r="J14" s="6" t="n">
         <v>-0.4756433432000973</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="n">
+        <v>-0.3527553565629082</v>
+      </c>
       <c r="L14" s="6" t="n">
         <v>-0.7398281007473324</v>
       </c>
@@ -1038,7 +1074,9 @@
       <c r="E15" s="5" t="n">
         <v>5.519436904772919</v>
       </c>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>16.2178015522866</v>
+      </c>
       <c r="G15" s="5" t="n">
         <v>4.506480996996184</v>
       </c>
@@ -1051,7 +1089,9 @@
       <c r="J15" s="6" t="n">
         <v>0.4027881098742979</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="n">
+        <v>1.220602287750604</v>
+      </c>
       <c r="L15" s="6" t="n">
         <v>0.2844779270129366</v>
       </c>
@@ -1060,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1073,7 +1113,7 @@
         <v>-0.8621563418175104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>14.52190508033475</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>28.15207668554151</v>
@@ -1087,7 +1127,9 @@
       <c r="J16" s="6" t="n">
         <v>-0.01514497699987513</v>
       </c>
-      <c r="K16" s="6" t="inlineStr"/>
+      <c r="K16" s="6" t="n">
+        <v>0.3799189648152504</v>
+      </c>
       <c r="L16" s="6" t="n">
         <v>1.124612294391977</v>
       </c>
@@ -1108,7 +1150,9 @@
       <c r="E17" s="5" t="n">
         <v>-13.65688789079432</v>
       </c>
-      <c r="F17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>-1.09969070834572</v>
+      </c>
       <c r="G17" s="5" t="n">
         <v>8.062484250331412</v>
       </c>
@@ -1121,7 +1165,9 @@
       <c r="J17" s="6" t="n">
         <v>-0.2111478474400237</v>
       </c>
-      <c r="K17" s="6" t="inlineStr"/>
+      <c r="K17" s="6" t="n">
+        <v>-0.009486278511482708</v>
+      </c>
       <c r="L17" s="6" t="n">
         <v>0.1782057069521547</v>
       </c>
@@ -1142,7 +1188,9 @@
       <c r="E18" s="5" t="n">
         <v>11.02742692795147</v>
       </c>
-      <c r="F18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>31.97731771099</v>
+      </c>
       <c r="G18" s="5" t="n">
         <v>45.5627464850751</v>
       </c>
@@ -1155,7 +1203,9 @@
       <c r="J18" s="6" t="n">
         <v>0.2232442718551061</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
+      <c r="K18" s="6" t="n">
+        <v>1.245285865172627</v>
+      </c>
       <c r="L18" s="6" t="n">
         <v>3.20871264165439</v>
       </c>
@@ -1164,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1177,7 +1227,7 @@
         <v>4.687028646174246</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>-16.35951238413698</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>-13.3243484241074</v>
@@ -1191,7 +1241,9 @@
       <c r="J19" s="6" t="n">
         <v>0.214169729499254</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
+      <c r="K19" s="6" t="n">
+        <v>-0.4024061148810164</v>
+      </c>
       <c r="L19" s="6" t="n">
         <v>-0.3381398411434264</v>
       </c>
@@ -1212,7 +1264,9 @@
       <c r="E20" s="5" t="n">
         <v>-6.575814995781077</v>
       </c>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>-39.16886137821097</v>
+      </c>
       <c r="G20" s="5" t="n">
         <v>-34.60666732692246</v>
       </c>
@@ -1225,7 +1279,9 @@
       <c r="J20" s="6" t="n">
         <v>-0.2359964979287693</v>
       </c>
-      <c r="K20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="n">
+        <v>-0.6985866949113225</v>
+      </c>
       <c r="L20" s="6" t="n">
         <v>-0.6290718557406134</v>
       </c>
@@ -1246,7 +1302,9 @@
       <c r="E21" s="5" t="n">
         <v>14.09011041069048</v>
       </c>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>0.2836477104075819</v>
+      </c>
       <c r="G21" s="5" t="n">
         <v>6.916313428886866</v>
       </c>
@@ -1259,7 +1317,9 @@
       <c r="J21" s="6" t="n">
         <v>0.8760696474892181</v>
       </c>
-      <c r="K21" s="6" t="inlineStr"/>
+      <c r="K21" s="6" t="n">
+        <v>0.03175093154879344</v>
+      </c>
       <c r="L21" s="6" t="n">
         <v>0.2684939832668091</v>
       </c>
@@ -1272,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1285,7 +1345,7 @@
         <v>3.933716290492312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>5.421792833359637</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>4.741109402855792</v>
@@ -1299,7 +1359,9 @@
       <c r="J22" s="6" t="n">
         <v>0.2804863269675303</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
+      <c r="K22" s="6" t="n">
+        <v>0.2983439183159077</v>
+      </c>
       <c r="L22" s="6" t="n">
         <v>0.3331911276587113</v>
       </c>
@@ -1320,7 +1382,9 @@
       <c r="E23" s="5" t="n">
         <v>-2.906076617514344</v>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="n">
+        <v>-6.851443968850829</v>
+      </c>
       <c r="G23" s="5" t="n">
         <v>-4.754788173503323</v>
       </c>
@@ -1333,7 +1397,9 @@
       <c r="J23" s="6" t="n">
         <v>-0.1643239564039519</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="n">
+        <v>-0.2678640283093229</v>
+      </c>
       <c r="L23" s="6" t="n">
         <v>-0.2747027049713635</v>
       </c>
@@ -1354,7 +1420,9 @@
       <c r="E24" s="5" t="n">
         <v>10.61709167722001</v>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="n">
+        <v>14.78806479920327</v>
+      </c>
       <c r="G24" s="5" t="n">
         <v>15.57482868367966</v>
       </c>
@@ -1367,7 +1435,9 @@
       <c r="J24" s="6" t="n">
         <v>1.052430996267495</v>
       </c>
-      <c r="K24" s="6" t="inlineStr"/>
+      <c r="K24" s="6" t="n">
+        <v>1.196611304862993</v>
+      </c>
       <c r="L24" s="6" t="n">
         <v>1.811649943067615</v>
       </c>
@@ -1376,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1389,7 +1459,7 @@
         <v>-8.735361348818982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>-7.901067713273235</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>2.123954495472968</v>
@@ -1403,7 +1473,9 @@
       <c r="J25" s="6" t="n">
         <v>-0.1416521421082578</v>
       </c>
-      <c r="K25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="n">
+        <v>-0.13417135160423</v>
+      </c>
       <c r="L25" s="6" t="n">
         <v>0.03976895578428643</v>
       </c>
@@ -1424,7 +1496,9 @@
       <c r="E26" s="5" t="n">
         <v>-18.27316141877878</v>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="n">
+        <v>-18.86061357821372</v>
+      </c>
       <c r="G26" s="5" t="n">
         <v>-13.7778249725846</v>
       </c>
@@ -1437,7 +1511,9 @@
       <c r="J26" s="6" t="n">
         <v>-0.2785019693267076</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
+      <c r="K26" s="6" t="n">
+        <v>-0.2859204775346016</v>
+      </c>
       <c r="L26" s="6" t="n">
         <v>-0.2193241112902979</v>
       </c>
@@ -1458,7 +1534,9 @@
       <c r="E27" s="5" t="n">
         <v>0.9221994775130504</v>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="n">
+        <v>3.89887611678523</v>
+      </c>
       <c r="G27" s="5" t="n">
         <v>14.84754522046668</v>
       </c>
@@ -1471,7 +1549,9 @@
       <c r="J27" s="6" t="n">
         <v>0.01645596554094861</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
+      <c r="K27" s="6" t="n">
+        <v>0.07232215884310009</v>
+      </c>
       <c r="L27" s="6" t="n">
         <v>0.3136308841643289</v>
       </c>
@@ -1480,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1493,7 +1573,7 @@
         <v>4.801645058326673</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0</v>
+        <v>2.479274879913607</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-6.865063898328744</v>
@@ -1507,7 +1587,9 @@
       <c r="J28" s="6" t="n">
         <v>0.1975361667813954</v>
       </c>
-      <c r="K28" s="6" t="inlineStr"/>
+      <c r="K28" s="6" t="n">
+        <v>0.1080805122450113</v>
+      </c>
       <c r="L28" s="6" t="n">
         <v>-0.2121252774027524</v>
       </c>
@@ -1528,7 +1610,9 @@
       <c r="E29" s="5" t="n">
         <v>-3.939974436260391</v>
       </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="n">
+        <v>-6.657001137479209</v>
+      </c>
       <c r="G29" s="5" t="n">
         <v>-18.60402520105024</v>
       </c>
@@ -1541,7 +1625,9 @@
       <c r="J29" s="6" t="n">
         <v>-0.1343372086812585</v>
       </c>
-      <c r="K29" s="6" t="inlineStr"/>
+      <c r="K29" s="6" t="n">
+        <v>-0.2387129842726299</v>
+      </c>
       <c r="L29" s="6" t="n">
         <v>-0.4877082404281272</v>
       </c>
@@ -1562,7 +1648,9 @@
       <c r="E30" s="5" t="n">
         <v>13.24533601552059</v>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="n">
+        <v>10.99704584373838</v>
+      </c>
       <c r="G30" s="5" t="n">
         <v>7.654710023998136</v>
       </c>
@@ -1575,7 +1663,9 @@
       <c r="J30" s="6" t="n">
         <v>0.6820061535178301</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
+      <c r="K30" s="6" t="n">
+        <v>0.6224266805796578</v>
+      </c>
       <c r="L30" s="6" t="n">
         <v>0.3243082555530678</v>
       </c>
@@ -1588,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1601,7 +1691,7 @@
         <v>-8.260824466136816</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>1.826457630843256</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>0.1349086343940237</v>
@@ -1615,7 +1705,9 @@
       <c r="J31" s="6" t="n">
         <v>-0.3725118478258171</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
+      <c r="K31" s="6" t="n">
+        <v>0.1151615995781051</v>
+      </c>
       <c r="L31" s="6" t="n">
         <v>0.006470075613705847</v>
       </c>
@@ -1636,7 +1728,9 @@
       <c r="E32" s="5" t="n">
         <v>-16.71653502529612</v>
       </c>
-      <c r="F32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="n">
+        <v>-5.221103254403264</v>
+      </c>
       <c r="G32" s="5" t="n">
         <v>-15.28589503974514</v>
       </c>
@@ -1649,7 +1743,9 @@
       <c r="J32" s="6" t="n">
         <v>-0.5918352365032534</v>
       </c>
-      <c r="K32" s="6" t="inlineStr"/>
+      <c r="K32" s="6" t="n">
+        <v>-0.2626501889217968</v>
+      </c>
       <c r="L32" s="6" t="n">
         <v>-0.5226736067953914</v>
       </c>
@@ -1670,7 +1766,9 @@
       <c r="E33" s="5" t="n">
         <v>-1.28297914142598</v>
       </c>
-      <c r="F33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="n">
+        <v>9.581419204466695</v>
+      </c>
       <c r="G33" s="5" t="n">
         <v>11.55082250646707</v>
       </c>
@@ -1683,7 +1781,9 @@
       <c r="J33" s="6" t="n">
         <v>-0.04900619402870932</v>
       </c>
-      <c r="K33" s="6" t="inlineStr"/>
+      <c r="K33" s="6" t="n">
+        <v>0.8382725845451778</v>
+      </c>
       <c r="L33" s="6" t="n">
         <v>0.865157778198952</v>
       </c>
@@ -1692,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1705,7 +1805,7 @@
         <v>3.46568419460741</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>0.08950128032991778</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.855787369982931</v>
@@ -1719,7 +1819,9 @@
       <c r="J34" s="6" t="n">
         <v>0.06431818994232877</v>
       </c>
-      <c r="K34" s="6" t="inlineStr"/>
+      <c r="K34" s="6" t="n">
+        <v>0.001601066312142285</v>
+      </c>
       <c r="L34" s="6" t="n">
         <v>-0.0320683444199707</v>
       </c>
@@ -1740,7 +1842,9 @@
       <c r="E35" s="5" t="n">
         <v>-5.708352815019643</v>
       </c>
-      <c r="F35" s="5" t="inlineStr"/>
+      <c r="F35" s="5" t="n">
+        <v>-11.05853012015423</v>
+      </c>
       <c r="G35" s="5" t="n">
         <v>-15.60802819212169</v>
       </c>
@@ -1753,7 +1857,9 @@
       <c r="J35" s="6" t="n">
         <v>-0.09248146933992196</v>
       </c>
-      <c r="K35" s="6" t="inlineStr"/>
+      <c r="K35" s="6" t="n">
+        <v>-0.181697507831594</v>
+      </c>
       <c r="L35" s="6" t="n">
         <v>-0.2449411065956392</v>
       </c>
@@ -1774,7 +1880,9 @@
       <c r="E36" s="5" t="n">
         <v>11.93994520701718</v>
       </c>
-      <c r="F36" s="5" t="inlineStr"/>
+      <c r="F36" s="5" t="n">
+        <v>10.00004353400702</v>
+      </c>
       <c r="G36" s="5" t="n">
         <v>12.15629340605109</v>
       </c>
@@ -1787,7 +1895,9 @@
       <c r="J36" s="6" t="n">
         <v>0.2489210264158607</v>
       </c>
-      <c r="K36" s="6" t="inlineStr"/>
+      <c r="K36" s="6" t="n">
+        <v>0.19918593905716</v>
+      </c>
       <c r="L36" s="6" t="n">
         <v>0.2448615346111351</v>
       </c>
@@ -1796,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1809,7 +1919,7 @@
         <v>4.795140271529391</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0</v>
+        <v>-1.915958911173171</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>1.720878735588871</v>
@@ -1823,7 +1933,9 @@
       <c r="J37" s="6" t="n">
         <v>0.2002934630382535</v>
       </c>
-      <c r="K37" s="6" t="inlineStr"/>
+      <c r="K37" s="6" t="n">
+        <v>-0.06784797034943628</v>
+      </c>
       <c r="L37" s="6" t="n">
         <v>0.08087188586238604</v>
       </c>
@@ -1844,7 +1956,9 @@
       <c r="E38" s="5" t="n">
         <v>-2.765444104225307</v>
       </c>
-      <c r="F38" s="5" t="inlineStr"/>
+      <c r="F38" s="5" t="n">
+        <v>-11.4903322840416</v>
+      </c>
       <c r="G38" s="5" t="n">
         <v>-9.142190733868659</v>
       </c>
@@ -1857,7 +1971,9 @@
       <c r="J38" s="6" t="n">
         <v>-0.1003900692285325</v>
       </c>
-      <c r="K38" s="6" t="inlineStr"/>
+      <c r="K38" s="6" t="n">
+        <v>-0.3432809438867594</v>
+      </c>
       <c r="L38" s="6" t="n">
         <v>-0.3347751010404315</v>
       </c>
@@ -1878,7 +1994,9 @@
       <c r="E39" s="5" t="n">
         <v>11.76052201637384</v>
       </c>
-      <c r="F39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="n">
+        <v>7.020062503001674</v>
+      </c>
       <c r="G39" s="5" t="n">
         <v>12.89261379348437</v>
       </c>
@@ -1891,7 +2009,9 @@
       <c r="J39" s="6" t="n">
         <v>0.5759867735443528</v>
       </c>
-      <c r="K39" s="6" t="inlineStr"/>
+      <c r="K39" s="6" t="n">
+        <v>0.3128932662470882</v>
+      </c>
       <c r="L39" s="6" t="n">
         <v>0.8691043199086261</v>
       </c>
@@ -1904,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1917,7 +2037,7 @@
         <v>1.1766627746461</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0</v>
+        <v>-3.502658034109293</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>2.401460339345435</v>
@@ -1931,7 +2051,9 @@
       <c r="J40" s="6" t="n">
         <v>0.07843951259075761</v>
       </c>
-      <c r="K40" s="6" t="inlineStr"/>
+      <c r="K40" s="6" t="n">
+        <v>-0.1969588567806825</v>
+      </c>
       <c r="L40" s="6" t="n">
         <v>0.1165646772280325</v>
       </c>
@@ -1952,7 +2074,9 @@
       <c r="E41" s="5" t="n">
         <v>-6.140783893401192</v>
       </c>
-      <c r="F41" s="5" t="inlineStr"/>
+      <c r="F41" s="5" t="n">
+        <v>-12.32675790326483</v>
+      </c>
       <c r="G41" s="5" t="n">
         <v>-8.949218016033386</v>
       </c>
@@ -1965,7 +2089,9 @@
       <c r="J41" s="6" t="n">
         <v>-0.342979307837026</v>
       </c>
-      <c r="K41" s="6" t="inlineStr"/>
+      <c r="K41" s="6" t="n">
+        <v>-0.5510464046933006</v>
+      </c>
       <c r="L41" s="6" t="n">
         <v>-0.341071685003862</v>
       </c>
@@ -1986,7 +2112,9 @@
       <c r="E42" s="5" t="n">
         <v>7.753311980846779</v>
       </c>
-      <c r="F42" s="5" t="inlineStr"/>
+      <c r="F42" s="5" t="n">
+        <v>6.205500628358234</v>
+      </c>
       <c r="G42" s="5" t="n">
         <v>14.13613307575751</v>
       </c>
@@ -1999,7 +2127,9 @@
       <c r="J42" s="6" t="n">
         <v>0.6474012261302636</v>
       </c>
-      <c r="K42" s="6" t="inlineStr"/>
+      <c r="K42" s="6" t="n">
+        <v>0.4783296128977954</v>
+      </c>
       <c r="L42" s="6" t="n">
         <v>0.9961316800160117</v>
       </c>
@@ -2008,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2021,7 +2151,7 @@
         <v>2.483008087569893</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>0</v>
+        <v>5.880899309930898</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>-1.150435538758554</v>
@@ -2035,7 +2165,9 @@
       <c r="J43" s="6" t="n">
         <v>0.04037083866550835</v>
       </c>
-      <c r="K43" s="6" t="inlineStr"/>
+      <c r="K43" s="6" t="n">
+        <v>0.1034059931142087</v>
+      </c>
       <c r="L43" s="6" t="n">
         <v>-0.02269148637313946</v>
       </c>
@@ -2056,7 +2188,9 @@
       <c r="E44" s="5" t="n">
         <v>-7.502989616133555</v>
       </c>
-      <c r="F44" s="5" t="inlineStr"/>
+      <c r="F44" s="5" t="n">
+        <v>-7.563638863257893</v>
+      </c>
       <c r="G44" s="5" t="n">
         <v>-15.75498587652332</v>
       </c>
@@ -2069,7 +2203,9 @@
       <c r="J44" s="6" t="n">
         <v>-0.1141334294528822</v>
       </c>
-      <c r="K44" s="6" t="inlineStr"/>
+      <c r="K44" s="6" t="n">
+        <v>-0.1208951565048335</v>
+      </c>
       <c r="L44" s="6" t="n">
         <v>-0.268118323314014</v>
       </c>
@@ -2090,7 +2226,9 @@
       <c r="E45" s="5" t="n">
         <v>11.21488331668305</v>
       </c>
-      <c r="F45" s="5" t="inlineStr"/>
+      <c r="F45" s="5" t="n">
+        <v>18.00825301644361</v>
+      </c>
       <c r="G45" s="5" t="n">
         <v>12.65976236772299</v>
       </c>
@@ -2103,7 +2241,9 @@
       <c r="J45" s="6" t="n">
         <v>0.2043513551479173</v>
       </c>
-      <c r="K45" s="6" t="inlineStr"/>
+      <c r="K45" s="6" t="n">
+        <v>0.3610961364778639</v>
+      </c>
       <c r="L45" s="6" t="n">
         <v>0.2927599364545773</v>
       </c>
@@ -2112,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2125,7 +2265,7 @@
         <v>-3.659670862215997</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>0</v>
+        <v>-2.378241275821607</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-1.251024800586914</v>
@@ -2139,7 +2279,9 @@
       <c r="J46" s="6" t="n">
         <v>-0.1557696834706569</v>
       </c>
-      <c r="K46" s="6" t="inlineStr"/>
+      <c r="K46" s="6" t="n">
+        <v>-0.09383711202894701</v>
+      </c>
       <c r="L46" s="6" t="n">
         <v>-0.04359115754888971</v>
       </c>
@@ -2160,7 +2302,9 @@
       <c r="E47" s="5" t="n">
         <v>-11.47117502535969</v>
       </c>
-      <c r="F47" s="5" t="inlineStr"/>
+      <c r="F47" s="5" t="n">
+        <v>-14.13491493738688</v>
+      </c>
       <c r="G47" s="5" t="n">
         <v>-13.36509802431572</v>
       </c>
@@ -2173,7 +2317,9 @@
       <c r="J47" s="6" t="n">
         <v>-0.4341459935014676</v>
       </c>
-      <c r="K47" s="6" t="inlineStr"/>
+      <c r="K47" s="6" t="n">
+        <v>-0.4501454613609663</v>
+      </c>
       <c r="L47" s="6" t="n">
         <v>-0.3867357085271742</v>
       </c>
@@ -2194,7 +2340,9 @@
       <c r="E48" s="5" t="n">
         <v>4.087601671818641</v>
       </c>
-      <c r="F48" s="5" t="inlineStr"/>
+      <c r="F48" s="5" t="n">
+        <v>7.3620683280538</v>
+      </c>
       <c r="G48" s="5" t="n">
         <v>11.60938449416011</v>
       </c>
@@ -2207,7 +2355,9 @@
       <c r="J48" s="6" t="n">
         <v>0.2216527065576304</v>
       </c>
-      <c r="K48" s="6" t="inlineStr"/>
+      <c r="K48" s="6" t="n">
+        <v>0.3571881844412447</v>
+      </c>
       <c r="L48" s="6" t="n">
         <v>0.5323848160829184</v>
       </c>
@@ -2220,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2233,7 +2383,7 @@
         <v>-12.97241422553158</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>0</v>
+        <v>1.433475951125843</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>-4.37756732461621</v>
@@ -2247,7 +2397,9 @@
       <c r="J49" s="6" t="n">
         <v>-0.5179640003784277</v>
       </c>
-      <c r="K49" s="6" t="inlineStr"/>
+      <c r="K49" s="6" t="n">
+        <v>0.1056450888246168</v>
+      </c>
       <c r="L49" s="6" t="n">
         <v>-0.2070732079494234</v>
       </c>
@@ -2268,7 +2420,9 @@
       <c r="E50" s="5" t="n">
         <v>-22.82696578906141</v>
       </c>
-      <c r="F50" s="5" t="inlineStr"/>
+      <c r="F50" s="5" t="n">
+        <v>-10.65614863427225</v>
+      </c>
       <c r="G50" s="5" t="n">
         <v>-17.77572668561155</v>
       </c>
@@ -2281,7 +2435,9 @@
       <c r="J50" s="6" t="n">
         <v>-0.7137656921531019</v>
       </c>
-      <c r="K50" s="6" t="inlineStr"/>
+      <c r="K50" s="6" t="n">
+        <v>-0.5403820233688243</v>
+      </c>
       <c r="L50" s="6" t="n">
         <v>-0.6320772122541999</v>
       </c>
@@ -2302,7 +2458,9 @@
       <c r="E51" s="5" t="n">
         <v>-3.592253676314848</v>
       </c>
-      <c r="F51" s="5" t="inlineStr"/>
+      <c r="F51" s="5" t="n">
+        <v>11.64673414329559</v>
+      </c>
       <c r="G51" s="5" t="n">
         <v>9.943510902549997</v>
       </c>
@@ -2315,7 +2473,9 @@
       <c r="J51" s="6" t="n">
         <v>-0.1238622192042344</v>
       </c>
-      <c r="K51" s="6" t="inlineStr"/>
+      <c r="K51" s="6" t="n">
+        <v>1.406871822666775</v>
+      </c>
       <c r="L51" s="6" t="n">
         <v>0.7682651275492606</v>
       </c>
@@ -2324,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2337,7 +2497,7 @@
         <v>5.685729563998154</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>0</v>
+        <v>-5.140449154547911</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-2.707032065543369</v>
@@ -2351,7 +2511,9 @@
       <c r="J52" s="6" t="n">
         <v>0.1079221312155012</v>
       </c>
-      <c r="K52" s="6" t="inlineStr"/>
+      <c r="K52" s="6" t="n">
+        <v>-0.08821691073808118</v>
+      </c>
       <c r="L52" s="6" t="n">
         <v>-0.04862352039294147</v>
       </c>
@@ -2372,7 +2534,9 @@
       <c r="E53" s="5" t="n">
         <v>-6.605802397233412</v>
       </c>
-      <c r="F53" s="5" t="inlineStr"/>
+      <c r="F53" s="5" t="n">
+        <v>-20.61501470508269</v>
+      </c>
       <c r="G53" s="5" t="n">
         <v>-21.62330372158537</v>
       </c>
@@ -2385,7 +2549,9 @@
       <c r="J53" s="6" t="n">
         <v>-0.108759035006403</v>
       </c>
-      <c r="K53" s="6" t="inlineStr"/>
+      <c r="K53" s="6" t="n">
+        <v>-0.3053480794712368</v>
+      </c>
       <c r="L53" s="6" t="n">
         <v>-0.3461063188940656</v>
       </c>
@@ -2406,7 +2572,9 @@
       <c r="E54" s="5" t="n">
         <v>17.50423385632627</v>
       </c>
-      <c r="F54" s="5" t="inlineStr"/>
+      <c r="F54" s="5" t="n">
+        <v>10.98514358643501</v>
+      </c>
       <c r="G54" s="5" t="n">
         <v>16.0239149858498</v>
       </c>
@@ -2419,7 +2587,9 @@
       <c r="J54" s="6" t="n">
         <v>0.3911516844485039</v>
       </c>
-      <c r="K54" s="6" t="inlineStr"/>
+      <c r="K54" s="6" t="n">
+        <v>0.2253228617890007</v>
+      </c>
       <c r="L54" s="6" t="n">
         <v>0.3564336278937985</v>
       </c>
@@ -2428,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2441,7 +2611,7 @@
         <v>7.286684661533452</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>0</v>
+        <v>3.706973203422087</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>7.084599390159582</v>
@@ -2455,7 +2625,9 @@
       <c r="J55" s="6" t="n">
         <v>0.3271773648655983</v>
       </c>
-      <c r="K55" s="6" t="inlineStr"/>
+      <c r="K55" s="6" t="n">
+        <v>0.1316366509772162</v>
+      </c>
       <c r="L55" s="6" t="n">
         <v>0.3055484140899575</v>
       </c>
@@ -2476,7 +2648,9 @@
       <c r="E56" s="5" t="n">
         <v>-4.291639151276454</v>
       </c>
-      <c r="F56" s="5" t="inlineStr"/>
+      <c r="F56" s="5" t="n">
+        <v>-13.07413785333476</v>
+      </c>
       <c r="G56" s="5" t="n">
         <v>-10.07162974598732</v>
       </c>
@@ -2489,7 +2663,9 @@
       <c r="J56" s="6" t="n">
         <v>-0.1678288862629654</v>
       </c>
-      <c r="K56" s="6" t="inlineStr"/>
+      <c r="K56" s="6" t="n">
+        <v>-0.3545678397665022</v>
+      </c>
       <c r="L56" s="6" t="n">
         <v>-0.3457900689758082</v>
       </c>
@@ -2510,7 +2686,9 @@
       <c r="E57" s="5" t="n">
         <v>18.05090709278911</v>
       </c>
-      <c r="F57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="n">
+        <v>17.16751798618645</v>
+      </c>
       <c r="G57" s="5" t="n">
         <v>24.30013206828588</v>
       </c>
@@ -2523,7 +2701,9 @@
       <c r="J57" s="6" t="n">
         <v>1.121525212020002</v>
       </c>
-      <c r="K57" s="6" t="inlineStr"/>
+      <c r="K57" s="6" t="n">
+        <v>0.8166258973835243</v>
+      </c>
       <c r="L57" s="6" t="n">
         <v>1.545443498416591</v>
       </c>
@@ -2536,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2549,7 +2729,7 @@
         <v>-1.756315619600582</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>0</v>
+        <v>0.4422499469561303</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>-1.884681519118248</v>
@@ -2563,7 +2743,9 @@
       <c r="J58" s="6" t="n">
         <v>-0.0914405237573214</v>
       </c>
-      <c r="K58" s="6" t="inlineStr"/>
+      <c r="K58" s="6" t="n">
+        <v>0.02302502174543642</v>
+      </c>
       <c r="L58" s="6" t="n">
         <v>-0.08502481986691743</v>
       </c>
@@ -2584,7 +2766,9 @@
       <c r="E59" s="5" t="n">
         <v>-5.572430483005388</v>
       </c>
-      <c r="F59" s="5" t="inlineStr"/>
+      <c r="F59" s="5" t="n">
+        <v>-4.470525734686319</v>
+      </c>
       <c r="G59" s="5" t="n">
         <v>-8.988217985519904</v>
       </c>
@@ -2597,7 +2781,9 @@
       <c r="J59" s="6" t="n">
         <v>-0.2546197453417476</v>
       </c>
-      <c r="K59" s="6" t="inlineStr"/>
+      <c r="K59" s="6" t="n">
+        <v>-0.208027901839381</v>
+      </c>
       <c r="L59" s="6" t="n">
         <v>-0.3365101125363982</v>
       </c>
@@ -2618,7 +2804,9 @@
       <c r="E60" s="5" t="n">
         <v>1.663581318066458</v>
       </c>
-      <c r="F60" s="5" t="inlineStr"/>
+      <c r="F60" s="5" t="n">
+        <v>5.02804189701197</v>
+      </c>
       <c r="G60" s="5" t="n">
         <v>4.004516956448302</v>
       </c>
@@ -2631,7 +2819,9 @@
       <c r="J60" s="6" t="n">
         <v>0.09872306882314275</v>
       </c>
-      <c r="K60" s="6" t="inlineStr"/>
+      <c r="K60" s="6" t="n">
+        <v>0.3093284517722713</v>
+      </c>
       <c r="L60" s="6" t="n">
         <v>0.2242562351773969</v>
       </c>
@@ -2640,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2653,7 +2843,7 @@
         <v>-1.330517301034562</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>0</v>
+        <v>-0.7418774634732173</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>3.634726971692614</v>
@@ -2667,7 +2857,9 @@
       <c r="J61" s="6" t="n">
         <v>-0.02293636068905804</v>
       </c>
-      <c r="K61" s="6" t="inlineStr"/>
+      <c r="K61" s="6" t="n">
+        <v>-0.01408845446773748</v>
+      </c>
       <c r="L61" s="6" t="n">
         <v>0.07493093835602473</v>
       </c>
@@ -2688,7 +2880,9 @@
       <c r="E62" s="5" t="n">
         <v>-6.242970993490891</v>
       </c>
-      <c r="F62" s="5" t="inlineStr"/>
+      <c r="F62" s="5" t="n">
+        <v>-6.880821260573362</v>
+      </c>
       <c r="G62" s="5" t="n">
         <v>-3.471904130207677</v>
       </c>
@@ -2701,7 +2895,9 @@
       <c r="J62" s="6" t="n">
         <v>-0.1018772057940035</v>
       </c>
-      <c r="K62" s="6" t="inlineStr"/>
+      <c r="K62" s="6" t="n">
+        <v>-0.1210825740893143</v>
+      </c>
       <c r="L62" s="6" t="n">
         <v>-0.06677914633751154</v>
       </c>
@@ -2722,7 +2918,9 @@
       <c r="E63" s="5" t="n">
         <v>3.300541970722008</v>
       </c>
-      <c r="F63" s="5" t="inlineStr"/>
+      <c r="F63" s="5" t="n">
+        <v>5.803148878049904</v>
+      </c>
       <c r="G63" s="5" t="n">
         <v>10.40410311843054</v>
       </c>
@@ -2735,7 +2933,9 @@
       <c r="J63" s="6" t="n">
         <v>0.05931772817076517</v>
       </c>
-      <c r="K63" s="6" t="inlineStr"/>
+      <c r="K63" s="6" t="n">
+        <v>0.1210645650533963</v>
+      </c>
       <c r="L63" s="6" t="n">
         <v>0.2377427221886241</v>
       </c>
@@ -2744,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
@@ -2757,7 +2957,7 @@
         <v>3.086832920635166</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>0</v>
+        <v>0.2996275165170925</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>-1.750045452574367</v>
@@ -2771,7 +2971,9 @@
       <c r="J64" s="6" t="n">
         <v>0.135484127500281</v>
       </c>
-      <c r="K64" s="6" t="inlineStr"/>
+      <c r="K64" s="6" t="n">
+        <v>0.0106499785702554</v>
+      </c>
       <c r="L64" s="6" t="n">
         <v>-0.05967544634114399</v>
       </c>
@@ -2792,7 +2994,9 @@
       <c r="E65" s="5" t="n">
         <v>-1.10641848742653</v>
       </c>
-      <c r="F65" s="5" t="inlineStr"/>
+      <c r="F65" s="5" t="n">
+        <v>-6.149614034812924</v>
+      </c>
       <c r="G65" s="5" t="n">
         <v>-8.888564486064602</v>
       </c>
@@ -2805,7 +3009,9 @@
       <c r="J65" s="6" t="n">
         <v>-0.0407379392750838</v>
       </c>
-      <c r="K65" s="6" t="inlineStr"/>
+      <c r="K65" s="6" t="n">
+        <v>-0.1914948025631819</v>
+      </c>
       <c r="L65" s="6" t="n">
         <v>-0.266732992448472</v>
       </c>
@@ -2826,7 +3032,9 @@
       <c r="E66" s="5" t="n">
         <v>6.85850203646041</v>
       </c>
-      <c r="F66" s="5" t="inlineStr"/>
+      <c r="F66" s="5" t="n">
+        <v>6.218127105822616</v>
+      </c>
       <c r="G66" s="5" t="n">
         <v>4.188418305226838</v>
       </c>
@@ -2839,7 +3047,9 @@
       <c r="J66" s="6" t="n">
         <v>0.3318570252110697</v>
       </c>
-      <c r="K66" s="6" t="inlineStr"/>
+      <c r="K66" s="6" t="n">
+        <v>0.2564627073167398</v>
+      </c>
       <c r="L66" s="6" t="n">
         <v>0.1603865512948183</v>
       </c>
